--- a/data/trans_dic/P69$dolorEspalda-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorEspalda-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5878762384619873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6773488476408883</v>
+        <v>0.6773488476408881</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7179836564793725</v>
@@ -685,7 +685,7 @@
         <v>0.7006820059552773</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7175946851484662</v>
+        <v>0.7175946851484661</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7296640197128538</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5875911616434025</v>
+        <v>0.5933926174661325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5234533779833338</v>
+        <v>0.5134771675231072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4425747750761221</v>
+        <v>0.4470227571325746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4616545001380603</v>
+        <v>0.4913100627910578</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4871258440144639</v>
+        <v>0.5202670831723178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5776187187944402</v>
+        <v>0.5911355523594856</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5501226890841379</v>
+        <v>0.5434604606430132</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5078833519543899</v>
+        <v>0.5193106449525717</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6159545495720991</v>
+        <v>0.6147684323620249</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.597930867195053</v>
+        <v>0.6032656985334007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5176540991928332</v>
+        <v>0.5303637823112323</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5438137671216733</v>
+        <v>0.5498208935109201</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8557099254445457</v>
+        <v>0.8630811440307955</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8235376707683657</v>
+        <v>0.8275187043990336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7307919445108455</v>
+        <v>0.7203862890172608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.834855712334503</v>
+        <v>0.8298472538137233</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8654224594359333</v>
+        <v>0.8807797712276487</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9231196549576468</v>
+        <v>0.9219500029667359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8293392150777052</v>
+        <v>0.8350099959471956</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8587150330332006</v>
+        <v>0.8611478894679419</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8270686997743729</v>
+        <v>0.8328088040707694</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8289995908664278</v>
+        <v>0.8148936741452558</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7276683662142936</v>
+        <v>0.7212893976108347</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7982934418366922</v>
+        <v>0.8204383913178643</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.910280211516843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8371129957635504</v>
+        <v>0.8371129957635505</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8774239761626104</v>
@@ -821,7 +821,7 @@
         <v>0.8988801145310384</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8796142508797605</v>
+        <v>0.8796142508797606</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8355324356982642</v>
@@ -833,7 +833,7 @@
         <v>0.9064011657130328</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.8578901554563017</v>
+        <v>0.8578901554563015</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7006877488591449</v>
+        <v>0.708408239533917</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7919971916025136</v>
+        <v>0.7768648114128182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8201314253129526</v>
+        <v>0.8237060116506689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6891931100601539</v>
+        <v>0.6684784532879152</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.718357969391521</v>
+        <v>0.7228858223223847</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6237328657526697</v>
+        <v>0.6320221075002904</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7754020395738792</v>
+        <v>0.7618991693786635</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7736878061965092</v>
+        <v>0.7781712817357582</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.749725851788888</v>
+        <v>0.7537820958901625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7675670409323762</v>
+        <v>0.765462965594873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8391203741156634</v>
+        <v>0.8396443577390595</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7708222112859473</v>
+        <v>0.7757240427886889</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9001559795930774</v>
+        <v>0.9012614989439882</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9604533313552552</v>
+        <v>0.9502468013334409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9615141262952082</v>
+        <v>0.9612230925998039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9402418368234793</v>
+        <v>0.9371715958956014</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9660210425695326</v>
+        <v>0.9693375385016435</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9123817036478703</v>
+        <v>0.9146127549065649</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9747291859697774</v>
+        <v>0.9743152139103883</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9511540424077123</v>
+        <v>0.9483337297536745</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9015126769261276</v>
+        <v>0.9019678478386387</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9207304681887144</v>
+        <v>0.9201266159625029</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9487845414670419</v>
+        <v>0.9498530845320614</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9234390345080599</v>
+        <v>0.9260124897372868</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8312338061798492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5642648372156897</v>
+        <v>0.5642648372156898</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.691122382156194</v>
@@ -957,7 +957,7 @@
         <v>0.8557577532123888</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6926833447885757</v>
+        <v>0.6926833447885758</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7515474962719086</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6415870255221535</v>
+        <v>0.6221445075531314</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7376225039417711</v>
+        <v>0.7045390642713556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6223965161973448</v>
+        <v>0.6085547549905039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4326902315791703</v>
+        <v>0.420242355349543</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4653403090652714</v>
+        <v>0.4649461887553749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5353303973467092</v>
+        <v>0.5273995327988745</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6157397320606536</v>
+        <v>0.5695750877167862</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5657133307939417</v>
+        <v>0.5554144432601946</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6156743272051716</v>
+        <v>0.6257201649593302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7101416791325526</v>
+        <v>0.7052316174825265</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6838898388693114</v>
+        <v>0.6936915276287159</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5368193716055445</v>
+        <v>0.5359400922605614</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8996139699701631</v>
+        <v>0.9022726133722093</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9640604812466512</v>
+        <v>0.9641732164354152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.957346054837413</v>
+        <v>0.9243552933398266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6947453623506502</v>
+        <v>0.7007540509270631</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8660260506190225</v>
+        <v>0.868367143944181</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9442826109797235</v>
+        <v>0.9445869714863546</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7997369227255539</v>
+        <v>0.7892400651418588</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8512066578119363</v>
+        <v>0.85361657563128</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.932670125292459</v>
+        <v>0.9314937950033009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9449807370002723</v>
+        <v>0.9265810778163922</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7085215524341023</v>
+        <v>0.7120260312699147</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8390848782633779</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7440181017133514</v>
+        <v>0.7440181017133515</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7330268495644993</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5919472676759594</v>
+        <v>0.5871601513405683</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7232855522821852</v>
+        <v>0.7336397752715355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6277526600218905</v>
+        <v>0.6375837356112629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5179336640792317</v>
+        <v>0.5198493032192083</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5546676263657566</v>
+        <v>0.5530182081047635</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5814518292486274</v>
+        <v>0.5736253948226588</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6632339900209264</v>
+        <v>0.6843724046648866</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6260024567604924</v>
+        <v>0.6141045025226828</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6249220530346703</v>
+        <v>0.6204879604430497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7216392212894533</v>
+        <v>0.7169776835695467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7096278081944414</v>
+        <v>0.7134553532057208</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6208960199303809</v>
+        <v>0.6254983219494952</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8293305987845133</v>
+        <v>0.82909142309443</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9353508388237579</v>
+        <v>0.9351154492329868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9168874514508921</v>
+        <v>0.9265946785751027</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8599889732834558</v>
+        <v>0.8508365363449468</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8893675066333341</v>
+        <v>0.8889054649812829</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.901292052109369</v>
+        <v>0.8960708240287485</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9374021880681492</v>
+        <v>0.9386122180936524</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8491272249906912</v>
+        <v>0.8427146486032917</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8246606121166367</v>
+        <v>0.8129185338646077</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8910976395939786</v>
+        <v>0.8888743088112914</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9078793306995064</v>
+        <v>0.905142674517426</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8179655165984719</v>
+        <v>0.8262554326022628</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8347575420685416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8589632277191033</v>
+        <v>0.8589632277191032</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7133709049185469</v>
@@ -1229,7 +1229,7 @@
         <v>0.8463311196980123</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8412411252477304</v>
+        <v>0.8412411252477301</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6962453179979908</v>
@@ -1241,7 +1241,7 @@
         <v>0.8379934654898381</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.852247920943242</v>
+        <v>0.8522479209432422</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5030328637154444</v>
+        <v>0.4558127087518034</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5016872905793762</v>
+        <v>0.4886338163366921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5332690818709827</v>
+        <v>0.544530491950617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6998996269800715</v>
+        <v>0.6879836677739793</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.283475369716806</v>
+        <v>0.2798520653123933</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4564271920562391</v>
+        <v>0.4906402194028432</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3684696792744968</v>
+        <v>0.2411719661971957</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6625315858798517</v>
+        <v>0.6494834556493838</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4989705522048166</v>
+        <v>0.5150152319696868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5852492184216306</v>
+        <v>0.5723208529443131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6062792965959617</v>
+        <v>0.5926420628449408</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7437597250053466</v>
+        <v>0.7320475438499118</v>
       </c>
     </row>
     <row r="18">
@@ -1296,16 +1296,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.87612966272572</v>
+        <v>0.8451423332099407</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9361590312544094</v>
+        <v>0.9354618871183568</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.965083960492756</v>
+        <v>0.9634184375679785</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>1</v>
@@ -1317,19 +1317,19 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9647477434842316</v>
+        <v>0.9631083279299347</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8448800112627598</v>
+        <v>0.847567496457941</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.921435265426104</v>
+        <v>0.8990916846483243</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9570123869292376</v>
+        <v>0.9564535518287999</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9288789174403638</v>
+        <v>0.9253509393010703</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.4909169519188696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6947937717781856</v>
+        <v>0.6947937717781855</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.7657012760826857</v>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7413968167614263</v>
+        <v>0.7413968167614262</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7605363496167248</v>
@@ -1377,7 +1377,7 @@
         <v>0.6175340653562266</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7170802233561543</v>
+        <v>0.7170802233561542</v>
       </c>
     </row>
     <row r="20">
@@ -1388,38 +1388,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.612443681852881</v>
+        <v>0.6165000771043637</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5894762220408433</v>
+        <v>0.5992771122909868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2765215489977489</v>
+        <v>0.2671345944199247</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5382338597903273</v>
+        <v>0.5356156519391125</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4584105944955843</v>
+        <v>0.4636152757695733</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6063316206084259</v>
+        <v>0.6194683305262523</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.5927120102736908</v>
+        <v>0.5836786657713965</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6320667489738795</v>
+        <v>0.6289534353097216</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6549995470785206</v>
+        <v>0.6426030185406619</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4192968123999861</v>
+        <v>0.4032788429426153</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6081983215059066</v>
+        <v>0.6028219715327243</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.880829512102398</v>
+        <v>0.8783549532404482</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8615025948151865</v>
+        <v>0.8627437036433555</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.690576689542725</v>
+        <v>0.6888339883906049</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8214666670193216</v>
+        <v>0.8248931232485377</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9263146264009975</v>
+        <v>0.9265967510962151</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.8541093677659377</v>
+        <v>0.8559437730903161</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8555956778468709</v>
+        <v>0.8669198594819257</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8776678045084733</v>
+        <v>0.8707524993265193</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7695587565224171</v>
+        <v>0.7691689252425985</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8122533451052176</v>
+        <v>0.8106368019963802</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.8266689807259239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.707920332279671</v>
+        <v>0.7079203322796711</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8465539481608386</v>
@@ -1497,7 +1497,7 @@
         <v>0.9134659537283719</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.7674479070851296</v>
+        <v>0.7674479070851298</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.7292931154884668</v>
@@ -1509,7 +1509,7 @@
         <v>0.8627296734026374</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.736919012322096</v>
+        <v>0.7369190123220962</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5626199283354995</v>
+        <v>0.5648880642583588</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.353782398132484</v>
+        <v>0.3588312577106971</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7090195806908088</v>
+        <v>0.7115519892502182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5885285695308979</v>
+        <v>0.5891601646419024</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7132452929659027</v>
+        <v>0.7169668650706751</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5531245007191353</v>
+        <v>0.5600698539413799</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8023809144316999</v>
+        <v>0.7992165467784366</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6601286930401375</v>
+        <v>0.6667388296795658</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6459816207030497</v>
+        <v>0.6454774178416401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4863222762658201</v>
+        <v>0.4820958625615527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.776424991897685</v>
+        <v>0.785460596020308</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6536759528978661</v>
+        <v>0.6649302310752044</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7667903601801411</v>
+        <v>0.7703109261971457</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6333722866934947</v>
+        <v>0.6139855367278132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9044635860028128</v>
+        <v>0.9049783023877499</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.807798895535377</v>
+        <v>0.8100895195155468</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9349248019876383</v>
+        <v>0.9335119518811698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8232549703196961</v>
+        <v>0.8353570125053369</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9794381456629135</v>
+        <v>0.9795333657868567</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8512698181324969</v>
+        <v>0.8409321767853818</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8014434403100112</v>
+        <v>0.8003325487807434</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6831791375824836</v>
+        <v>0.6837443096433093</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9173190031770608</v>
+        <v>0.9185614100237791</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.797634367828964</v>
+        <v>0.8040186441959225</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.481830285559521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9163767204880242</v>
+        <v>0.9163767204880239</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7541400625082348</v>
@@ -1633,7 +1633,7 @@
         <v>0.8289131873292441</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8163691761585908</v>
+        <v>0.8163691761585907</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.7759236778583473</v>
@@ -1645,7 +1645,7 @@
         <v>0.6042507449524751</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.8698051691537952</v>
+        <v>0.8698051691537954</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7008267430463169</v>
+        <v>0.6929568902968988</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5634292709594146</v>
+        <v>0.5535834484467697</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3157259259038866</v>
+        <v>0.3405283765846772</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8186887556173584</v>
+        <v>0.8301308773225865</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6110782084458</v>
+        <v>0.608158362697784</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6328161785133568</v>
+        <v>0.6398387219607108</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5784767224621099</v>
+        <v>0.5770896790282998</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6949434837610334</v>
+        <v>0.692402541787136</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6975155189335934</v>
+        <v>0.7114047422287255</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6382303311630561</v>
+        <v>0.6563849682106249</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4664586145914378</v>
+        <v>0.4617303061471231</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8015185009952027</v>
+        <v>0.8071266418067758</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8527415511125306</v>
+        <v>0.8543978937487804</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.841427079707334</v>
+        <v>0.8275728065861458</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.653368200116785</v>
+        <v>0.6482238509137607</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9673060020039179</v>
+        <v>0.9683622673377961</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.860341274880437</v>
+        <v>0.8574131684133058</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9637450893693366</v>
+        <v>0.9648501366092967</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9529621289952571</v>
+        <v>0.9536824552479162</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8945360918994411</v>
+        <v>0.8955522138199259</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8316383295169757</v>
+        <v>0.8387846844105954</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.8491080760753371</v>
+        <v>0.8581520596565692</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7322947712326581</v>
+        <v>0.7263247601090141</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9221747878660886</v>
+        <v>0.920846841102325</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>0.7859710900044131</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.7611202636332354</v>
+        <v>0.7611202636332353</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7007093309738359</v>
+        <v>0.6975274579150679</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6991260945850604</v>
+        <v>0.7005325011712995</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.730872359977396</v>
+        <v>0.7350602030757026</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.7175929406656062</v>
+        <v>0.7149433259374028</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.748600155604299</v>
+        <v>0.748081232797209</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7282770644962686</v>
+        <v>0.7270544436719366</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7985646505335078</v>
+        <v>0.7962445682660476</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7952161142674987</v>
+        <v>0.7968938379677877</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8165005038636576</v>
+        <v>0.8153312131995183</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7950171336333004</v>
+        <v>0.7947547886269387</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.8186465252177267</v>
+        <v>0.8191199661963452</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7925580916190705</v>
+        <v>0.7900894126407971</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25175</v>
+        <v>25423</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20673</v>
+        <v>20279</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25093</v>
+        <v>25345</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11436</v>
+        <v>12170</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13941</v>
+        <v>14890</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16161</v>
+        <v>16539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22491</v>
+        <v>22219</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8230</v>
+        <v>8415</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>44018</v>
+        <v>43933</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>40343</v>
+        <v>40703</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>50513</v>
+        <v>51753</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22284</v>
+        <v>22530</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36662</v>
+        <v>36978</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32525</v>
+        <v>32682</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41434</v>
+        <v>40844</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20680</v>
+        <v>20556</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24768</v>
+        <v>25207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25827</v>
+        <v>25794</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33907</v>
+        <v>34139</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13915</v>
+        <v>13955</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59105</v>
+        <v>59515</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>55933</v>
+        <v>54982</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>71007</v>
+        <v>70384</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>32712</v>
+        <v>33619</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>50728</v>
+        <v>51287</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>44819</v>
+        <v>43963</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>67895</v>
+        <v>68191</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33086</v>
+        <v>32092</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23482</v>
+        <v>23630</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21403</v>
+        <v>21688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33107</v>
+        <v>32531</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35523</v>
+        <v>35729</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>78784</v>
+        <v>79210</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>69776</v>
+        <v>69584</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>105295</v>
+        <v>105361</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>72396</v>
+        <v>72857</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>65169</v>
+        <v>65249</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54352</v>
+        <v>53774</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79600</v>
+        <v>79576</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45138</v>
+        <v>44991</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31577</v>
+        <v>31686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31308</v>
+        <v>31385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41618</v>
+        <v>41600</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43671</v>
+        <v>43542</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>94735</v>
+        <v>94782</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>83699</v>
+        <v>83644</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>119056</v>
+        <v>119190</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>86730</v>
+        <v>86972</v>
       </c>
     </row>
     <row r="12">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23492</v>
+        <v>22780</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18666</v>
+        <v>17828</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13228</v>
+        <v>12934</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21177</v>
+        <v>20568</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10109</v>
+        <v>10100</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9601</v>
+        <v>9459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7697</v>
+        <v>7120</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25924</v>
+        <v>25452</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35918</v>
+        <v>36504</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30707</v>
+        <v>30494</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23085</v>
+        <v>23416</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50873</v>
+        <v>50790</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32939</v>
+        <v>33037</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24396</v>
+        <v>24398</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20347</v>
+        <v>19646</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34002</v>
+        <v>34296</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18814</v>
+        <v>18864</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16936</v>
+        <v>16941</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>12501</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36648</v>
+        <v>36167</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49659</v>
+        <v>49799</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40329</v>
+        <v>40278</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>31898</v>
+        <v>31277</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>67145</v>
+        <v>67477</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34524</v>
+        <v>34245</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34044</v>
+        <v>34531</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20380</v>
+        <v>20699</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>28054</v>
+        <v>28158</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12594</v>
+        <v>12557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17173</v>
+        <v>16942</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19854</v>
+        <v>20487</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>33086</v>
+        <v>32457</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50637</v>
+        <v>50278</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>55280</v>
+        <v>54923</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>44281</v>
+        <v>44520</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>66448</v>
+        <v>66940</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48369</v>
+        <v>48355</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>44025</v>
+        <v>44014</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29767</v>
+        <v>30082</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46582</v>
+        <v>46086</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20194</v>
+        <v>20183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26620</v>
+        <v>26465</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28061</v>
+        <v>28097</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>44879</v>
+        <v>44540</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66821</v>
+        <v>65870</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>68261</v>
+        <v>68090</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56652</v>
+        <v>56481</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>87538</v>
+        <v>88425</v>
       </c>
     </row>
     <row r="20">
@@ -2864,40 +2864,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11547</v>
+        <v>10463</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8112</v>
+        <v>7901</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7930</v>
+        <v>8097</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15156</v>
+        <v>14898</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1976</v>
+        <v>1951</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5322</v>
+        <v>5721</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2126</v>
+        <v>1392</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8753</v>
+        <v>8580</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14932</v>
+        <v>15412</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16287</v>
+        <v>15928</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12514</v>
+        <v>12233</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>25932</v>
+        <v>25524</v>
       </c>
     </row>
     <row r="23">
@@ -2908,16 +2908,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20111</v>
+        <v>19399</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15137</v>
+        <v>15125</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>14870</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20898</v>
+        <v>20862</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>6970</v>
@@ -2929,19 +2929,19 @@
         <v>5771</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12745</v>
+        <v>12724</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25283</v>
+        <v>25363</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>25644</v>
+        <v>25022</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19754</v>
+        <v>19742</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>32386</v>
+        <v>32263</v>
       </c>
     </row>
     <row r="24">
@@ -3044,38 +3044,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25606</v>
+        <v>25776</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25571</v>
+        <v>25997</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6203</v>
+        <v>5993</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17691</v>
+        <v>17605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6461</v>
+        <v>6534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9207</v>
+        <v>9406</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>17855</v>
+        <v>17583</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>35334</v>
+        <v>35160</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>38359</v>
+        <v>37633</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>12520</v>
+        <v>12042</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>38312</v>
+        <v>37974</v>
       </c>
     </row>
     <row r="27">
@@ -3086,38 +3086,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>36827</v>
+        <v>36724</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>37372</v>
+        <v>37426</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15492</v>
+        <v>15453</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>27000</v>
+        <v>27113</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13055</v>
+        <v>13059</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>15184</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>25729</v>
+        <v>25784</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>47830</v>
+        <v>48463</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>51400</v>
+        <v>50995</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>22979</v>
+        <v>22967</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>51166</v>
+        <v>51064</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>49301</v>
+        <v>49499</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19256</v>
+        <v>19531</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55546</v>
+        <v>55744</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>50011</v>
+        <v>50065</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>31051</v>
+        <v>31213</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>25654</v>
+        <v>25976</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>44678</v>
+        <v>44502</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>53284</v>
+        <v>53817</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>84728</v>
+        <v>84661</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>49026</v>
+        <v>48600</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>104060</v>
+        <v>105271</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>108310</v>
+        <v>110175</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>67192</v>
+        <v>67500</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34474</v>
+        <v>33419</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>70857</v>
+        <v>70898</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>68644</v>
+        <v>68839</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>40702</v>
+        <v>40640</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>38183</v>
+        <v>38744</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>54537</v>
+        <v>54542</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>68712</v>
+        <v>67878</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>105118</v>
+        <v>104972</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>68871</v>
+        <v>68928</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>122943</v>
+        <v>123109</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>132163</v>
+        <v>133221</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>76331</v>
+        <v>75473</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>25421</v>
+        <v>24977</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>12400</v>
+        <v>13374</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>53997</v>
+        <v>54752</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>30423</v>
+        <v>30278</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19410</v>
+        <v>19625</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>12379</v>
+        <v>12350</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>39947</v>
+        <v>39801</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>110696</v>
+        <v>112901</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>48372</v>
+        <v>49748</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>28302</v>
+        <v>28015</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>98939</v>
+        <v>99631</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>92876</v>
+        <v>93057</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>37964</v>
+        <v>37339</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25660</v>
+        <v>25458</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>63800</v>
+        <v>63869</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>42833</v>
+        <v>42687</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>29560</v>
+        <v>29594</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>20393</v>
+        <v>20409</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>51421</v>
+        <v>51479</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>131982</v>
+        <v>133116</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>64355</v>
+        <v>65040</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>44431</v>
+        <v>44069</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>113832</v>
+        <v>113668</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>243932</v>
+        <v>242825</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>266606</v>
+        <v>267142</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>250203</v>
+        <v>251637</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>388371</v>
+        <v>386937</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>422524</v>
+        <v>422231</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>527037</v>
+        <v>526152</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>277998</v>
+        <v>277190</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>303249</v>
+        <v>303889</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>279517</v>
+        <v>279116</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>430274</v>
+        <v>430132</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>462060</v>
+        <v>462327</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>573555</v>
+        <v>571769</v>
       </c>
     </row>
     <row r="40">
